--- a/example.xlsx
+++ b/example.xlsx
@@ -14,18 +14,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="4">
   <si>
-    <t>KOMPANIYA LLC - IP LIZORKINA</t>
+    <t>PA</t>
   </si>
   <si>
-    <t>5th DONSKOY PASSAGE, 21B P10</t>
+    <t>ALF LEATHE</t>
   </si>
   <si>
-    <t>00000 119334 MOSCOW</t>
+    <t>LF LEATHER</t>
   </si>
   <si>
-    <t>RUSSIAN FEDERATION</t>
+    <t>PA 10% PL</t>
   </si>
 </sst>
 </file>
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:A20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -406,12 +406,87 @@
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
